--- a/8. OpenPyXL/Prueba_14.xlsx
+++ b/8. OpenPyXL/Prueba_14.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reporte" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -46,7 +45,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,39 +59,16 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -464,7 +440,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
@@ -482,7 +458,7 @@
     <col width="17" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Trazado</t>
@@ -558,7 +534,9 @@
       <c r="A3" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="n"/>
+      <c r="B3" s="2" t="n">
+        <v>30</v>
+      </c>
       <c r="C3" s="2" t="n">
         <v>30</v>
       </c>
@@ -616,7 +594,9 @@
       <c r="A5" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B5" s="3" t="n"/>
+      <c r="B5" s="2" t="n">
+        <v>25</v>
+      </c>
       <c r="C5" s="2" t="n">
         <v>10</v>
       </c>
@@ -734,7 +714,9 @@
       <c r="A9" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B9" s="4" t="n"/>
+      <c r="B9" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="C9" s="2" t="n">
         <v>30</v>
       </c>
@@ -762,7 +744,9 @@
       <c r="A10" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="n"/>
+      <c r="B10" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="C10" s="2" t="n">
         <v>5</v>
       </c>
@@ -850,7 +834,9 @@
       <c r="A13" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="n"/>
+      <c r="B13" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="C13" s="2" t="n">
         <v>10</v>
       </c>
@@ -875,33 +861,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B7"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>